--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2758.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2758.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164005182901085</v>
+        <v>1.871641755104065</v>
       </c>
       <c r="B1">
-        <v>2.425998167350748</v>
+        <v>2.122498035430908</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.311903953552246</v>
       </c>
       <c r="D1">
-        <v>2.366433918029009</v>
+        <v>3.371453046798706</v>
       </c>
       <c r="E1">
-        <v>1.223009417299396</v>
+        <v>1.432364344596863</v>
       </c>
     </row>
   </sheetData>
